--- a/Data/2020/Volby 2020.xlsx
+++ b/Data/2020/Volby 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0741620b644d4/Princípy datovej vedy/PROJEKT/Data/2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef0741620b644d4/Princípy datovej vedy/Projekt Git/PDV-Slovak-election-prediction/data/2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9450AA53-4946-4BDF-918B-99566A0682A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1271F88D-7F15-4E3E-9F6B-C57450A32FBC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{9450AA53-4946-4BDF-918B-99566A0682A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B908B3-A761-4C8A-AD70-3BD74E69AD1B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3660" yWindow="4425" windowWidth="28800" windowHeight="15345" xr2:uid="{54C2EA13-8B2C-470E-BF29-1DCB4C33D112}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="16185" windowHeight="20985" xr2:uid="{54C2EA13-8B2C-470E-BF29-1DCB4C33D112}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Polotický subjekt</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Socialisti.sk</t>
+  </si>
+  <si>
+    <t>59174</t>
   </si>
 </sst>
 </file>
@@ -249,6 +252,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50DA586-125D-4E8D-8206-9E1DB77BDF8B}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,8 +759,8 @@
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="4">
-        <v>59174</v>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <v>2.0499999999999998</v>

--- a/Data/2020/Volby 2020.xlsx
+++ b/Data/2020/Volby 2020.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{9450AA53-4946-4BDF-918B-99566A0682A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B908B3-A761-4C8A-AD70-3BD74E69AD1B}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="16185" windowHeight="20985" xr2:uid="{54C2EA13-8B2C-470E-BF29-1DCB4C33D112}"/>
+    <workbookView xWindow="8925" yWindow="2685" windowWidth="28800" windowHeight="15345" xr2:uid="{54C2EA13-8B2C-470E-BF29-1DCB4C33D112}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50DA586-125D-4E8D-8206-9E1DB77BDF8B}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
